--- a/excel_sheets/Survey_metadata.xlsx
+++ b/excel_sheets/Survey_metadata.xlsx
@@ -509,7 +509,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>survey type metadata version 20240812.1</t>
+          <t>survey type metadata version 20240905.1</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>
